--- a/data/input/CatexBABE_Complete.xlsx
+++ b/data/input/CatexBABE_Complete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksam\Documents\GitHub\CATEX_BABE\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FB74C2-AAB0-40EC-881D-BDC096B9EB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9115C3B-601F-441F-856C-54AFE57E5EB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1716,10 +1716,10 @@
   <dimension ref="A1:AL728"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomRight" activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1963,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI15" si="0">Y2/AC2</f>
+        <f t="shared" ref="AI2:AI13" si="0">Y2/AC2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
@@ -2206,6 +2206,7 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
+      <c r="AL4"/>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
@@ -3517,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" ref="AI14:AI65" si="8">Y15/AD15</f>
+        <f t="shared" ref="AI15:AI65" si="8">Y15/AD15</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
@@ -4365,7 +4366,6 @@
         <v>0</v>
       </c>
       <c r="AK22"/>
-      <c r="AL22"/>
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="1" t="s">
